--- a/accom_clean.xlsx
+++ b/accom_clean.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tu\cla\Jarcho\STUDIES\Accommodation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66A5C4-7E99-4C4A-829A-A2E211582188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20970" windowHeight="7380"/>
+    <workbookView xWindow="2280" yWindow="9580" windowWidth="40340" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,19 +359,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>172</v>
       </c>
@@ -404,7 +406,7 @@
         <v>-15.691700000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>182</v>
       </c>
@@ -421,7 +423,7 @@
         <v>-18.741499999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>208</v>
       </c>
@@ -438,7 +440,7 @@
         <v>-22.1617</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>241</v>
       </c>
@@ -455,7 +457,7 @@
         <v>-23.649899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>247</v>
       </c>
@@ -472,7 +474,7 @@
         <v>-26.548200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>273</v>
       </c>
@@ -489,7 +491,7 @@
         <v>-5.6447000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>281</v>
       </c>
@@ -506,7 +508,7 @@
         <v>-12.915900000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>292</v>
       </c>
@@ -523,7 +525,7 @@
         <v>-11.246</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>313</v>
       </c>
@@ -540,7 +542,7 @@
         <v>-5.2820999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>331</v>
       </c>
@@ -557,7 +559,7 @@
         <v>-5.6172000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>333</v>
       </c>
@@ -574,7 +576,7 @@
         <v>-13.2189</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>346</v>
       </c>
@@ -591,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>369</v>
       </c>
@@ -608,7 +610,7 @@
         <v>-6.2565999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>379</v>
       </c>
@@ -625,7 +627,7 @@
         <v>-14.695</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>386</v>
       </c>
@@ -642,7 +644,7 @@
         <v>-8.6984999999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>422</v>
       </c>
@@ -659,7 +661,7 @@
         <v>-9.4206000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>435</v>
       </c>
@@ -676,7 +678,7 @@
         <v>-7.9787999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>439</v>
       </c>
@@ -693,7 +695,7 @@
         <v>-4.1764000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>446</v>
       </c>
@@ -710,7 +712,7 @@
         <v>-10.3461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>454</v>
       </c>
@@ -727,7 +729,7 @@
         <v>-5.2962999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>477</v>
       </c>
@@ -744,7 +746,7 @@
         <v>13.067500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>481</v>
       </c>
@@ -761,7 +763,7 @@
         <v>-10.6656</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>488</v>
       </c>
@@ -778,7 +780,7 @@
         <v>-12.4946</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>514</v>
       </c>
@@ -795,7 +797,7 @@
         <v>-19.930299999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>555</v>
       </c>
@@ -812,7 +814,7 @@
         <v>-9.9946999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>503</v>
       </c>
@@ -829,7 +831,7 @@
         <v>-7.968</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>523</v>
       </c>
@@ -846,7 +848,7 @@
         <v>-4.5777000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>428</v>
       </c>
@@ -863,7 +865,7 @@
         <v>-13.302199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>578</v>
       </c>
@@ -880,7 +882,7 @@
         <v>-16.899000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>582</v>
       </c>
@@ -897,7 +899,7 @@
         <v>-12.384499999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>593</v>
       </c>
@@ -914,7 +916,7 @@
         <v>-22.876300000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>420</v>
       </c>
@@ -931,7 +933,7 @@
         <v>-16.586300000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>300</v>
       </c>
@@ -948,7 +950,7 @@
         <v>-7.0784000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>388</v>
       </c>
@@ -965,7 +967,7 @@
         <v>-12.1021</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>606</v>
       </c>
@@ -982,7 +984,7 @@
         <v>-11.4946</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>525</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>-35.350499999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>571</v>
       </c>
@@ -1016,7 +1018,7 @@
         <v>-10.3619</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>601</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>-13.5823</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>624</v>
       </c>
@@ -1050,7 +1052,7 @@
         <v>-11.1379</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>542</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>-12.7334</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>609</v>
       </c>
@@ -1084,7 +1086,7 @@
         <v>-16.610700000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>611</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>-8.2516999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>667</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>-9.2148000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>161</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>-17.494</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>584</v>
       </c>
@@ -1152,7 +1154,7 @@
         <v>-7.2195999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>619</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>-7.6651999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>628</v>
       </c>
@@ -1186,7 +1188,7 @@
         <v>-11.4047</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>673</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>-7.4508000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>696</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>-12.210100000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>678</v>
       </c>
@@ -1237,7 +1239,7 @@
         <v>-14.5359</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>694</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>-5.5016999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>701</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>-10.0654</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>692</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>-5.7019000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>707</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>-14.531700000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>730</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>-14.2645</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>308</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>-1.1324E-14</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4736</v>
       </c>
@@ -1356,7 +1358,7 @@
         <v>-1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4803</v>
       </c>
@@ -1373,7 +1375,7 @@
         <v>-9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4789</v>
       </c>
@@ -1390,7 +1392,7 @@
         <v>-1.54E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4788</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>-2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4797</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>-8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>589</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>-1.5432999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4800</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>-1.1324E-14</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>453</v>
       </c>

--- a/accom_clean.xlsx
+++ b/accom_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66A5C4-7E99-4C4A-829A-A2E211582188}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4992A5B-911C-A14D-80FF-2EF0080ABD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="9580" windowWidth="40340" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="5860" windowWidth="40340" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,6 +369,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/accom_clean.xlsx
+++ b/accom_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4992A5B-911C-A14D-80FF-2EF0080ABD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85F019-37F6-2649-96BB-C44E6CB01A45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="5860" windowWidth="40340" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1080" windowWidth="13440" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/accom_clean.xlsx
+++ b/accom_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85F019-37F6-2649-96BB-C44E6CB01A45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A90BC5-B83A-7E46-988C-1C81743FD8DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1080" windowWidth="13440" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="22780" windowHeight="21860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -372,6 +372,7 @@
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/accom_clean.xlsx
+++ b/accom_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tul67061/Documents/GitHub/accomodation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52AD855-93F1-B549-9CA5-C1F12AB985B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D07BFA2-3F06-7442-ADCB-FA142374C737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="42320" windowHeight="23440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="264">
   <si>
     <t>HouseholdID</t>
   </si>
@@ -175,9 +175,6 @@
     <t>DSM-5-CC: Mania (highest component score)</t>
   </si>
   <si>
-    <t>DSM-5-CC: Anxiety (highest component score)    if([adult_measures_arm_1][dsmcc_adult_6] &gt; ([adult_measures_arm_1][dsmcc_adult_7] and [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_6], if([adult_measures_arm_1][dsmcc_adult_7] &gt; ([adult_measures_arm_1][dsmcc_adult_6] and [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_7],  if([adult_measures_arm_1][dsmcc_adult_8] &gt; ([adult_measures_arm_1][dsmcc_adult_6] and [adult_measures_arm_1][dsmcc_adult_7]), [adult_measures_arm_1][dsmcc_adult_8], if( ([adult_measures_arm_1][dsmcc_adult_6] &gt; [adult_measures_arm_1][dsmcc_adult_7]) and ([adult_measures_arm_1][dsmcc_adult_6] = [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_6], if( ([adult_measures_arm_1][dsmcc_adult_8] &gt; [adult_measures_arm_1][dsmcc_adult_7]) and ([adult_measures_arm_1][dsmcc_adult_6] = [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_6], if( ([adult_measures_arm_1][dsmcc_adult_6] &gt; [adult_measures_arm_1][dsmcc_adult_8]) and ([adult_measures_arm_1][dsmcc_adult_6] = [adult_measures_arm_1][dsmcc_adult_7]), [adult_measures_arm_1][dsmcc_adult_6],  if( ([adult_measures_arm_1][dsmcc_adult_7] &gt; [adult_measures_arm_1][dsmcc_adult_8]) and ([adult_measures_arm_1][dsmcc_adult_6] = [adult_measures_arm_1][dsmcc_adult_7]), [adult_measures_arm_1][dsmcc_adult_6], if( ([adult_measures_arm_1][dsmcc_adult_8] &gt; [adult_measures_arm_1][dsmcc_adult_6]) and ([adult_measures_arm_1][dsmcc_adult_7] = [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_7], if( ([adult_measures_arm_1][dsmcc_adult_7] &gt; [adult_measures_arm_1][dsmcc_adult_6]) and ([adult_measures_arm_1][dsmcc_adult_7] = [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_7], if(([adult_measures_arm_1][dsmcc_adult_6] = [adult_measures_arm_1][dsmcc_adult_7]) and ([adult_measures_arm_1][dsmcc_adult_7] = [adult_measures_arm_1][dsmcc_adult_8]), [adult_measures_arm_1][dsmcc_adult_6],  ''))))))))))</t>
-  </si>
-  <si>
     <t>h45</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>s352</t>
   </si>
   <si>
-    <t>NaN</t>
-  </si>
-  <si>
     <t>h189</t>
   </si>
   <si>
@@ -812,6 +806,12 @@
   </si>
   <si>
     <t>s4803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSM-5-CC: Anxiety (highest component score)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1119,8 @@
   </sheetPr>
   <dimension ref="A1:AZ68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1283,18 +1283,18 @@
         <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D2">
         <v>0.16969999999999999</v>
@@ -1312,37 +1312,37 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="1">
         <v>30</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D3">
         <v>5.4800000000000001E-2</v>
@@ -1470,37 +1470,37 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="1">
         <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="1">
         <v>34</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="1">
         <v>17</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D4">
         <v>7.1000000000000004E-3</v>
@@ -1628,37 +1628,37 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1">
         <v>11</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="1">
         <v>42</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="1">
         <v>27</v>
@@ -1762,13 +1762,13 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D5">
         <v>2.9999999999999997E-4</v>
@@ -1786,37 +1786,37 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="1">
         <v>32</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T5" s="1">
         <v>42</v>
@@ -1920,13 +1920,13 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D6">
         <v>0.1555</v>
@@ -1944,37 +1944,37 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1">
         <v>11</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="1">
         <v>29</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" s="1">
         <v>20</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D7">
         <v>2.5000000000000001E-3</v>
@@ -2102,37 +2102,37 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1">
         <v>14</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="1">
         <v>33</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="T7" s="1">
         <v>2</v>
@@ -2236,13 +2236,13 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D8">
         <v>0.1331</v>
@@ -2260,37 +2260,37 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1">
         <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="1">
         <v>69</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T8" s="1">
         <v>22</v>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D9">
         <v>8.0000000000000004E-4</v>
@@ -2418,37 +2418,37 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1">
         <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="1">
         <v>36</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T9" s="1">
         <v>35</v>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D10">
         <v>3.0999999999999999E-3</v>
@@ -2576,37 +2576,37 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1">
         <v>12</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="1">
         <v>41</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T10" s="1">
         <v>10</v>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2734,37 +2734,37 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1">
         <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="1">
         <v>45</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T11" s="1">
         <v>36</v>
@@ -2868,13 +2868,13 @@
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D12">
         <v>2.0299999999999999E-2</v>
@@ -2892,37 +2892,37 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="1">
         <v>13</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="1">
         <v>35</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T12" s="1">
         <v>18</v>
@@ -3026,13 +3026,13 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D13">
         <v>0.21909999999999999</v>
@@ -3050,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="1">
         <v>11</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="1">
         <v>41</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T13" s="1">
         <v>9</v>
@@ -3184,13 +3184,13 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D14">
         <v>3.0999999999999999E-3</v>
@@ -3208,37 +3208,37 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="1">
         <v>12</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q14" s="1">
         <v>51</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T14" s="1">
         <v>44</v>
@@ -3342,13 +3342,13 @@
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D15">
         <v>2.0000000000000001E-4</v>
@@ -3357,7 +3357,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3366,37 +3366,37 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1">
         <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="1">
         <v>53</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T15" s="1">
         <v>16</v>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D16">
         <v>2.7000000000000001E-3</v>
@@ -3524,37 +3524,37 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1">
         <v>11</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="1">
         <v>46</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T16" s="1">
         <v>20</v>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D17">
         <v>1.1900000000000001E-2</v>
@@ -3682,37 +3682,37 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1">
         <v>14</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="1">
         <v>50</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="1">
         <v>11</v>
@@ -3816,13 +3816,13 @@
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D18">
         <v>2.1700000000000001E-2</v>
@@ -3840,37 +3840,37 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="1">
         <v>14</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="1">
         <v>39</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="T18" s="1">
         <v>9</v>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D19">
         <v>5.6000000000000001E-2</v>
@@ -3998,37 +3998,37 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="1">
         <v>12</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="1">
         <v>45</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T19" s="1">
         <v>17</v>
@@ -4132,13 +4132,13 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D20">
         <v>2.8999999999999998E-3</v>
@@ -4156,37 +4156,37 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="1">
         <v>11</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="1">
         <v>47</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T20" s="1">
         <v>9</v>
@@ -4290,13 +4290,13 @@
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D21">
         <v>4.2599999999999999E-2</v>
@@ -4314,37 +4314,37 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1">
         <v>13</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="1">
         <v>38</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T21" s="1">
         <v>11</v>
@@ -4448,13 +4448,13 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D22">
         <v>1.5900000000000001E-2</v>
@@ -4472,37 +4472,37 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1">
         <v>14</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="1">
         <v>42</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T22" s="1">
         <v>32</v>
@@ -4606,13 +4606,13 @@
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D23">
         <v>4.6300000000000001E-2</v>
@@ -4630,37 +4630,37 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1">
         <v>12</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="1">
         <v>39</v>
       </c>
       <c r="R23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T23" s="1">
         <v>8</v>
@@ -4764,13 +4764,13 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D24">
         <v>2.2100000000000002E-2</v>
@@ -4788,37 +4788,37 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J24" s="1">
         <v>12</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="1">
         <v>38</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T24" s="1">
         <v>27</v>
@@ -4922,13 +4922,13 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D25">
         <v>7.1000000000000004E-3</v>
@@ -4946,37 +4946,37 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J25" s="1">
         <v>13</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q25" s="1">
         <v>52</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T25" s="1">
         <v>2</v>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D26">
         <v>4.0000000000000002E-4</v>
@@ -5104,37 +5104,37 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1">
         <v>12</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="1">
         <v>31</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T26" s="1">
         <v>18</v>
@@ -5181,70 +5181,34 @@
       <c r="AH26" s="1">
         <v>0</v>
       </c>
-      <c r="AI26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AT26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AX26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ26" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D27">
         <v>4.5999999999999999E-2</v>
@@ -5262,37 +5226,37 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1">
         <v>11</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="1">
         <v>47</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T27" s="1">
         <v>3</v>
@@ -5396,13 +5360,13 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D28">
         <v>1E-3</v>
@@ -5420,37 +5384,37 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J28" s="1">
         <v>13</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="1">
         <v>40</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T28" s="1">
         <v>34</v>
@@ -5554,13 +5518,13 @@
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D29">
         <v>2.8999999999999998E-3</v>
@@ -5578,37 +5542,37 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1">
         <v>11</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q29" s="1">
         <v>44</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T29" s="1">
         <v>58</v>
@@ -5712,13 +5676,13 @@
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D30">
         <v>8.8999999999999999E-3</v>
@@ -5736,37 +5700,37 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J30" s="1">
         <v>12</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="1">
         <v>47</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T30" s="1">
         <v>13</v>
@@ -5870,13 +5834,13 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D31">
         <v>2.8799999999999999E-2</v>
@@ -5894,37 +5858,37 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J31" s="1">
         <v>11</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="1">
         <v>43</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T31" s="1">
         <v>18</v>
@@ -6028,13 +5992,13 @@
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D32">
         <v>1.6999999999999999E-3</v>
@@ -6052,37 +6016,37 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J32" s="1">
         <v>12</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q32" s="1">
         <v>47</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T32" s="1">
         <v>10</v>
@@ -6186,13 +6150,13 @@
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D33">
         <v>0.2525</v>
@@ -6210,37 +6174,37 @@
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J33" s="1">
         <v>14</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="1">
         <v>44</v>
       </c>
       <c r="R33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T33" s="1">
         <v>38</v>
@@ -6344,13 +6308,13 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D34">
         <v>2.2800000000000001E-2</v>
@@ -6368,37 +6332,37 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" s="1">
         <v>14</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q34" s="1">
         <v>33</v>
       </c>
       <c r="R34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T34" s="1">
         <v>12</v>
@@ -6502,13 +6466,13 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D35">
         <v>2.18E-2</v>
@@ -6526,37 +6490,37 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" s="1">
         <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="M35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="1">
         <v>41</v>
       </c>
       <c r="R35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T35" s="1">
         <v>19</v>
@@ -6660,13 +6624,13 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D36">
         <v>3.8999999999999998E-3</v>
@@ -6684,37 +6648,37 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J36" s="1">
         <v>13</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q36" s="1">
         <v>51</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T36" s="1">
         <v>38</v>
@@ -6818,13 +6782,13 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D37">
         <v>3.8800000000000001E-2</v>
@@ -6842,37 +6806,37 @@
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" s="1">
         <v>12</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q37" s="1">
         <v>45</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T37" s="1">
         <v>11</v>
@@ -6976,13 +6940,13 @@
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D38">
         <v>7.3200000000000001E-2</v>
@@ -7000,37 +6964,37 @@
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J38" s="1">
         <v>13</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="1">
         <v>33</v>
       </c>
       <c r="R38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="T38" s="1">
         <v>8</v>
@@ -7134,13 +7098,13 @@
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D39">
         <v>8.6E-3</v>
@@ -7158,37 +7122,37 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J39" s="1">
         <v>11</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="M39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="1">
         <v>39</v>
       </c>
       <c r="R39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="T39" s="1">
         <v>20</v>
@@ -7292,13 +7256,13 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D40">
         <v>5.5999999999999999E-3</v>
@@ -7316,37 +7280,37 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="1">
         <v>11</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q40" s="1">
         <v>54</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T40" s="1">
         <v>10</v>
@@ -7450,13 +7414,13 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="D41">
         <v>0.1799</v>
@@ -7474,37 +7438,37 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J41" s="4">
         <v>12</v>
       </c>
       <c r="K41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="M41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="4">
         <v>40</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T41" s="4">
         <v>67</v>
@@ -7608,13 +7572,13 @@
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D42">
         <v>0.2525</v>
@@ -7632,37 +7596,37 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J42" s="4">
         <v>15</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q42" s="4">
         <v>48</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T42" s="4">
         <v>39</v>
@@ -7766,13 +7730,13 @@
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D43">
         <v>5.28E-2</v>
@@ -7790,35 +7754,35 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43" s="4">
         <v>13</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q43" s="4">
         <v>43</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T43" s="4">
         <v>39</v>
@@ -7922,13 +7886,13 @@
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D44">
         <v>8.8999999999999999E-3</v>
@@ -7946,37 +7910,37 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" s="4">
         <v>11</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q44" s="4">
         <v>41</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T44" s="4">
         <v>23</v>
@@ -8080,13 +8044,13 @@
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="D45">
         <v>2.3E-3</v>
@@ -8104,37 +8068,37 @@
         <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J45" s="4">
         <v>12</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="4">
         <v>46</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T45" s="4">
         <v>28</v>
@@ -8238,13 +8202,13 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="D46">
         <v>7.7899999999999997E-2</v>
@@ -8262,37 +8226,37 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J46" s="4">
         <v>13</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q46" s="4">
         <v>46</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T46" s="4">
         <v>2</v>
@@ -8396,13 +8360,13 @@
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="D47">
         <v>3.9899999999999998E-2</v>
@@ -8420,37 +8384,37 @@
         <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J47" s="4">
         <v>15</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q47" s="4">
         <v>44</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T47" s="4">
         <v>37</v>
@@ -8554,13 +8518,13 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D48">
         <v>1.01E-2</v>
@@ -8578,37 +8542,37 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J48" s="4">
         <v>11</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q48" s="4">
         <v>45</v>
       </c>
       <c r="R48" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S48" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="T48" s="4">
         <v>7</v>
@@ -8712,13 +8676,13 @@
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D49">
         <v>3.44E-2</v>
@@ -8736,37 +8700,37 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J49" s="4">
         <v>15</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q49" s="4">
         <v>47</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T49" s="4">
         <v>15</v>
@@ -8870,13 +8834,13 @@
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D50">
         <v>6.8999999999999999E-3</v>
@@ -8894,37 +8858,37 @@
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J50" s="4">
         <v>13</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q50" s="4">
         <v>48</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T50" s="4">
         <v>42</v>
@@ -9028,13 +8992,13 @@
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="D51">
         <v>2.4899999999999999E-2</v>
@@ -9052,37 +9016,37 @@
         <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J51" s="4">
         <v>13</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="4">
         <v>42</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T51" s="4">
         <v>35</v>
@@ -9186,13 +9150,13 @@
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D52">
         <v>1.6299999999999999E-2</v>
@@ -9210,37 +9174,37 @@
         <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J52" s="4">
         <v>12</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q52" s="4">
         <v>59</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="S52" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="T52" s="4">
         <v>17</v>
@@ -9344,13 +9308,13 @@
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D53">
         <v>5.5999999999999999E-3</v>
@@ -9368,37 +9332,37 @@
         <v>0</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J53" s="4">
         <v>11</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q53" s="4">
         <v>43</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T53" s="4">
         <v>17</v>
@@ -9502,61 +9466,53 @@
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J54" s="4">
         <v>12</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q54" s="4">
         <v>36</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T54" s="4">
         <v>44</v>
@@ -9660,13 +9616,13 @@
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D55">
         <v>0.25009999999999999</v>
@@ -9684,37 +9640,37 @@
         <v>1</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J55" s="4">
         <v>12</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q55" s="4">
         <v>41</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T55" s="4">
         <v>70</v>
@@ -9818,13 +9774,13 @@
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D56">
         <v>8.6999999999999994E-3</v>
@@ -9842,37 +9798,37 @@
         <v>1</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J56" s="4">
         <v>11</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q56" s="4">
         <v>48</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S56" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T56" s="4">
         <v>42</v>
@@ -9976,13 +9932,13 @@
     </row>
     <row r="57" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D57">
         <v>0.1371</v>
@@ -10000,37 +9956,37 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J57" s="4">
         <v>12</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="4">
         <v>42</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T57" s="4">
         <v>30</v>
@@ -10134,13 +10090,13 @@
     </row>
     <row r="58" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="D58">
         <v>8.8700000000000001E-2</v>
@@ -10158,37 +10114,37 @@
         <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J58" s="4">
         <v>12</v>
       </c>
       <c r="K58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="M58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q58" s="4">
         <v>51</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="T58" s="4">
         <v>17</v>
@@ -10292,61 +10248,57 @@
     </row>
     <row r="59" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="D59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="G59" s="7"/>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J59" s="4">
         <v>13</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q59" s="4">
         <v>47</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T59" s="4">
         <v>2</v>
@@ -10450,13 +10402,13 @@
     </row>
     <row r="60" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="D60">
         <v>0.2525</v>
@@ -10474,37 +10426,37 @@
         <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J60" s="4">
         <v>11</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q60" s="4">
         <v>43</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T60" s="4">
         <v>36</v>
@@ -10608,13 +10560,13 @@
     </row>
     <row r="61" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D61">
         <v>0.2525</v>
@@ -10632,37 +10584,37 @@
         <v>0</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J61" s="4">
         <v>10</v>
       </c>
       <c r="K61" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L61" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="M61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q61" s="4">
         <v>39</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T61" s="4">
         <v>15</v>
@@ -10766,13 +10718,13 @@
     </row>
     <row r="62" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D62">
         <v>1.15E-2</v>
@@ -10790,37 +10742,37 @@
         <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J62" s="4">
         <v>12</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q62" s="4">
         <v>43</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T62" s="4">
         <v>8</v>
@@ -10924,13 +10876,13 @@
     </row>
     <row r="63" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D63">
         <v>3.3999999999999998E-3</v>
@@ -10948,37 +10900,37 @@
         <v>0</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J63" s="4">
         <v>15</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q63" s="4">
         <v>50</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T63" s="4">
         <v>47</v>
@@ -11082,13 +11034,13 @@
     </row>
     <row r="64" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D64" s="2">
         <v>0</v>
@@ -11106,35 +11058,35 @@
         <v>1</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J64" s="8">
         <v>14</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O64" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="8">
         <v>47</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S64" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="T64" s="9">
         <v>15</v>
@@ -11238,13 +11190,13 @@
     </row>
     <row r="65" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -11262,35 +11214,35 @@
         <v>1</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J65" s="8">
         <v>9</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O65" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="8">
         <v>38</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T65" s="9">
         <v>38</v>
@@ -11394,13 +11346,13 @@
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D66" s="2">
         <v>0</v>
@@ -11418,35 +11370,35 @@
         <v>1</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J66" s="8">
         <v>8</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O66" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="8">
         <v>37</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S66" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T66" s="9">
         <v>51</v>
@@ -11550,13 +11502,13 @@
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D67" s="2">
         <v>6.3E-3</v>
@@ -11574,35 +11526,35 @@
         <v>0</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J67" s="8">
         <v>16</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O67" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="8">
         <v>49</v>
       </c>
       <c r="R67" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S67" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T67" s="9">
         <v>45</v>
@@ -11706,13 +11658,13 @@
     </row>
     <row r="68" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D68" s="2">
         <v>0</v>
@@ -11730,35 +11682,35 @@
         <v>1</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="8">
         <v>9</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="8">
         <v>43</v>
       </c>
       <c r="R68" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S68" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T68" s="9">
         <v>19</v>

--- a/accom_clean.xlsx
+++ b/accom_clean.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="198">
   <si>
     <t>HouseholdID</t>
   </si>
@@ -673,7 +673,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -688,11 +688,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -719,6 +734,12 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +958,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BA68"/>
+  <dimension ref="A1:BM69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="AY52" workbookViewId="0">
+      <selection activeCell="BC83" sqref="BC83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4822,7 +4843,9 @@
       <c r="C25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>7.1000000000000002E-4</v>
+      </c>
       <c r="E25">
         <v>7.1000000000000004E-3</v>
       </c>
@@ -5428,7 +5451,9 @@
       <c r="C29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="16">
+        <v>6.3000000000000003E-4</v>
+      </c>
       <c r="E29">
         <v>2.8999999999999998E-3</v>
       </c>
@@ -5587,7 +5612,9 @@
       <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="16">
+        <v>7.6999999999999996E-4</v>
+      </c>
       <c r="E30">
         <v>8.8999999999999999E-3</v>
       </c>
@@ -5907,7 +5934,9 @@
       <c r="C32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="16">
+        <v>8.8999999999999995E-4</v>
+      </c>
       <c r="E32">
         <v>1.6999999999999999E-3</v>
       </c>
@@ -6066,7 +6095,9 @@
       <c r="C33" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="16">
+        <v>4.8000000000000001E-4</v>
+      </c>
       <c r="E33">
         <v>0.2525</v>
       </c>
@@ -6225,7 +6256,9 @@
       <c r="C34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="16">
+        <v>7.2999999999999996E-4</v>
+      </c>
       <c r="E34">
         <v>2.2800000000000001E-2</v>
       </c>
@@ -6384,7 +6417,9 @@
       <c r="C35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="16">
+        <v>1.4E-3</v>
+      </c>
       <c r="E35">
         <v>2.18E-2</v>
       </c>
@@ -6543,7 +6578,9 @@
       <c r="C36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="16">
+        <v>3.8000000000000002E-4</v>
+      </c>
       <c r="E36">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -6702,7 +6739,9 @@
       <c r="C37" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="16">
+        <v>2.3999999999999998E-3</v>
+      </c>
       <c r="E37">
         <v>3.8800000000000001E-2</v>
       </c>
@@ -6861,7 +6900,9 @@
       <c r="C38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="16">
+        <v>4.4999999999999999E-4</v>
+      </c>
       <c r="E38">
         <v>7.3200000000000001E-2</v>
       </c>
@@ -7020,7 +7061,9 @@
       <c r="C39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="16">
+        <v>5.8E-4</v>
+      </c>
       <c r="E39">
         <v>8.6E-3</v>
       </c>
@@ -7179,7 +7222,9 @@
       <c r="C40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="D40" s="16">
+        <v>4.2000000000000002E-4</v>
+      </c>
       <c r="E40">
         <v>5.5999999999999999E-3</v>
       </c>
@@ -7499,7 +7544,9 @@
       <c r="C42" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="16">
+        <v>5.6999999999999998E-4</v>
+      </c>
       <c r="E42">
         <v>0.2525</v>
       </c>
@@ -8139,7 +8186,9 @@
       <c r="C46" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="16">
+        <v>7.2999999999999996E-4</v>
+      </c>
       <c r="E46">
         <v>7.7899999999999997E-2</v>
       </c>
@@ -8298,8 +8347,8 @@
       <c r="C47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="3">
-        <v>3.4000000000000002E-4</v>
+      <c r="D47" s="16">
+        <v>6.6E-4</v>
       </c>
       <c r="E47">
         <v>3.9899999999999998E-2</v>
@@ -8942,7 +8991,9 @@
       <c r="C51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="16">
+        <v>5.6999999999999998E-4</v>
+      </c>
       <c r="E51">
         <v>2.4899999999999999E-2</v>
       </c>
@@ -9429,7 +9480,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>53</v>
@@ -9574,7 +9625,9 @@
       <c r="C55" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="16">
+        <v>8.5999999999999998E-4</v>
+      </c>
       <c r="E55">
         <v>0.25009999999999999</v>
       </c>
@@ -9733,7 +9786,9 @@
       <c r="C56" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="16">
+        <v>4.6000000000000001E-4</v>
+      </c>
       <c r="E56">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -9892,7 +9947,9 @@
       <c r="C57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="16">
+        <v>8.0999999999999996E-4</v>
+      </c>
       <c r="E57">
         <v>0.1371</v>
       </c>
@@ -10051,7 +10108,9 @@
       <c r="C58" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="16">
+        <v>2.1000000000000001E-4</v>
+      </c>
       <c r="E58">
         <v>8.8700000000000001E-2</v>
       </c>
@@ -10210,7 +10269,9 @@
       <c r="C59" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="16">
+        <v>1E-3</v>
+      </c>
       <c r="E59" s="7" t="s">
         <v>196</v>
       </c>
@@ -10365,7 +10426,9 @@
       <c r="C60" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="16">
+        <v>1.1000000000000001E-3</v>
+      </c>
       <c r="E60">
         <v>0.2525</v>
       </c>
@@ -10524,7 +10587,9 @@
       <c r="C61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="16">
+        <v>2.5000000000000001E-4</v>
+      </c>
       <c r="E61">
         <v>0.2525</v>
       </c>
@@ -10683,7 +10748,9 @@
       <c r="C62" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="16">
+        <v>5.2999999999999998E-4</v>
+      </c>
       <c r="E62">
         <v>1.15E-2</v>
       </c>
@@ -10842,7 +10909,9 @@
       <c r="C63" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="16">
+        <v>7.2000000000000005E-4</v>
+      </c>
       <c r="E63">
         <v>3.3999999999999998E-3</v>
       </c>
@@ -11001,7 +11070,9 @@
       <c r="C64" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <v>6.4000000000000005E-4</v>
+      </c>
       <c r="E64" s="2">
         <v>0</v>
       </c>
@@ -11148,7 +11219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>196</v>
       </c>
@@ -11158,7 +11229,9 @@
       <c r="C65" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="7">
+        <v>6.4000000000000005E-4</v>
+      </c>
       <c r="E65" s="2">
         <v>0</v>
       </c>
@@ -11305,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>196</v>
       </c>
@@ -11315,7 +11388,9 @@
       <c r="C66" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="14"/>
+      <c r="D66" s="14">
+        <v>5.9999999999999995E-4</v>
+      </c>
       <c r="E66" s="2">
         <v>0</v>
       </c>
@@ -11462,7 +11537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>196</v>
       </c>
@@ -11472,7 +11547,9 @@
       <c r="C67" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <v>5.9999999999999995E-4</v>
+      </c>
       <c r="E67" s="2">
         <v>6.3E-3</v>
       </c>
@@ -11619,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:65" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>196</v>
       </c>
@@ -11629,7 +11706,9 @@
       <c r="C68" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
       <c r="E68" s="2">
         <v>0</v>
       </c>
@@ -11776,8 +11855,161 @@
         <v>1</v>
       </c>
     </row>
+    <row r="69" spans="1:65" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="6">
+        <v>4811</v>
+      </c>
+      <c r="D69">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="J69" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="21">
+        <v>14</v>
+      </c>
+      <c r="L69" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M69" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="N69" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O69" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P69" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q69" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="R69" s="21">
+        <v>52</v>
+      </c>
+      <c r="S69" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="T69" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="U69" s="21">
+        <v>22</v>
+      </c>
+      <c r="V69" s="21">
+        <v>9</v>
+      </c>
+      <c r="W69" s="21">
+        <v>7</v>
+      </c>
+      <c r="X69" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y69" s="21">
+        <v>5</v>
+      </c>
+      <c r="Z69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="21">
+        <v>16</v>
+      </c>
+      <c r="AB69" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC69" s="21">
+        <v>3</v>
+      </c>
+      <c r="AD69" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="21">
+        <v>7</v>
+      </c>
+      <c r="AF69" s="21">
+        <v>2</v>
+      </c>
+      <c r="AG69" s="21">
+        <v>6</v>
+      </c>
+      <c r="AH69" s="21">
+        <v>2</v>
+      </c>
+      <c r="AI69" s="21">
+        <v>3</v>
+      </c>
+      <c r="AJ69" s="21">
+        <v>7</v>
+      </c>
+      <c r="AK69" s="21">
+        <v>4</v>
+      </c>
+      <c r="AL69" s="21">
+        <v>3</v>
+      </c>
+      <c r="AM69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW69" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="21">
+        <v>1</v>
+      </c>
+      <c r="AY69" s="21">
+        <v>1</v>
+      </c>
+      <c r="AZ69" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA69" s="21">
+        <v>2</v>
+      </c>
+      <c r="BB69" s="21"/>
+      <c r="BC69" s="21"/>
+      <c r="BD69" s="21"/>
+      <c r="BE69" s="21"/>
+      <c r="BF69" s="21"/>
+      <c r="BG69" s="21"/>
+      <c r="BH69" s="21"/>
+      <c r="BI69" s="21"/>
+      <c r="BJ69" s="21"/>
+      <c r="BK69" s="21"/>
+      <c r="BL69" s="21"/>
+      <c r="BM69" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11785,8 +12017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:V161"/>
   <sheetViews>
-    <sheetView topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="J46" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12132,10 +12364,10 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>369</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="15">
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="P18" s="19"/>
@@ -12615,10 +12847,10 @@
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
-      <c r="N39" s="19">
+      <c r="N39" s="18">
         <v>571</v>
       </c>
-      <c r="O39" s="16">
+      <c r="O39" s="15">
         <v>7.9000000000000001E-4</v>
       </c>
       <c r="P39" s="19"/>
@@ -12638,10 +12870,10 @@
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
-      <c r="N40" s="19">
+      <c r="N40" s="18">
         <v>578</v>
       </c>
-      <c r="O40" s="16">
+      <c r="O40" s="15">
         <v>6.3000000000000003E-4</v>
       </c>
       <c r="P40" s="19"/>
@@ -12661,10 +12893,10 @@
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
-      <c r="N41" s="19">
+      <c r="N41" s="18">
         <v>582</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="15">
         <v>7.1000000000000002E-4</v>
       </c>
       <c r="P41" s="19"/>
@@ -12684,10 +12916,10 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
-      <c r="N42" s="19">
+      <c r="N42" s="18">
         <v>584</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="15">
         <v>7.6999999999999996E-4</v>
       </c>
       <c r="P42" s="19"/>
@@ -12707,10 +12939,10 @@
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
-      <c r="N43" s="19">
+      <c r="N43" s="18">
         <v>589</v>
       </c>
-      <c r="O43" s="16">
+      <c r="O43" s="15">
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="P43" s="19"/>
@@ -12730,10 +12962,10 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
-      <c r="N44" s="19">
+      <c r="N44" s="18">
         <v>593</v>
       </c>
-      <c r="O44" s="16">
+      <c r="O44" s="15">
         <v>4.6000000000000001E-4</v>
       </c>
       <c r="P44" s="19"/>
@@ -12753,10 +12985,10 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
-      <c r="N45" s="19">
+      <c r="N45" s="18">
         <v>601</v>
       </c>
-      <c r="O45" s="16">
+      <c r="O45" s="15">
         <v>8.0999999999999996E-4</v>
       </c>
       <c r="P45" s="19"/>
@@ -12776,10 +13008,10 @@
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
-      <c r="N46" s="19">
+      <c r="N46" s="18">
         <v>606</v>
       </c>
-      <c r="O46" s="16">
+      <c r="O46" s="15">
         <v>8.8999999999999995E-4</v>
       </c>
       <c r="P46" s="19"/>
@@ -12799,10 +13031,10 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
-      <c r="N47" s="19">
+      <c r="N47" s="18">
         <v>609</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47" s="15">
         <v>2.1000000000000001E-4</v>
       </c>
       <c r="P47" s="19"/>
@@ -12822,10 +13054,10 @@
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
-      <c r="N48" s="19">
+      <c r="N48" s="18">
         <v>611</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O48" s="15">
         <v>4.8000000000000001E-4</v>
       </c>
       <c r="P48" s="19"/>
@@ -12845,10 +13077,10 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
-      <c r="N49" s="19">
+      <c r="N49" s="18">
         <v>619</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O49" s="15">
         <v>7.2999999999999996E-4</v>
       </c>
       <c r="P49" s="19"/>
@@ -12868,10 +13100,10 @@
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
-      <c r="N50" s="19">
+      <c r="N50" s="18">
         <v>621</v>
       </c>
-      <c r="O50" s="16">
+      <c r="O50" s="15">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="P50" s="19"/>
@@ -12891,10 +13123,10 @@
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
-      <c r="N51" s="19">
+      <c r="N51" s="18">
         <v>624</v>
       </c>
-      <c r="O51" s="16">
+      <c r="O51" s="15">
         <v>1E-3</v>
       </c>
       <c r="P51" s="19"/>
@@ -12914,10 +13146,10 @@
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
-      <c r="N52" s="19">
+      <c r="N52" s="18">
         <v>628</v>
       </c>
-      <c r="O52" s="16">
+      <c r="O52" s="15">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="P52" s="19"/>
@@ -12937,10 +13169,10 @@
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
-      <c r="N53" s="19">
+      <c r="N53" s="18">
         <v>667</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O53" s="15">
         <v>1.4E-3</v>
       </c>
       <c r="P53" s="19"/>
@@ -12960,10 +13192,10 @@
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
-      <c r="N54" s="19">
+      <c r="N54" s="18">
         <v>673</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O54" s="15">
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="P54" s="19"/>
@@ -12983,10 +13215,10 @@
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
-      <c r="N55" s="19">
+      <c r="N55" s="18">
         <v>678</v>
       </c>
-      <c r="O55" s="16">
+      <c r="O55" s="15">
         <v>5.2999999999999998E-4</v>
       </c>
       <c r="P55" s="19"/>
@@ -13006,10 +13238,10 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
-      <c r="N56" s="19">
+      <c r="N56" s="18">
         <v>682</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O56" s="15">
         <v>7.2000000000000005E-4</v>
       </c>
       <c r="P56" s="19"/>
@@ -13029,10 +13261,10 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
-      <c r="N57" s="19">
+      <c r="N57" s="18">
         <v>692</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="15">
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="P57" s="19"/>
@@ -13052,10 +13284,10 @@
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
-      <c r="N58" s="19">
+      <c r="N58" s="18">
         <v>694</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O58" s="15">
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="P58" s="19"/>
@@ -13075,10 +13307,10 @@
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
-      <c r="N59" s="19">
+      <c r="N59" s="18">
         <v>701</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="15">
         <v>6.6E-4</v>
       </c>
       <c r="P59" s="19"/>
@@ -13098,10 +13330,10 @@
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
-      <c r="N60" s="19">
+      <c r="N60" s="18">
         <v>706</v>
       </c>
-      <c r="O60" s="16">
+      <c r="O60" s="15">
         <v>5.6999999999999998E-4</v>
       </c>
       <c r="P60" s="19"/>
@@ -13121,10 +13353,10 @@
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
-      <c r="N61" s="19">
+      <c r="N61" s="18">
         <v>707</v>
       </c>
-      <c r="O61" s="16">
+      <c r="O61" s="15">
         <v>4.4999999999999999E-4</v>
       </c>
       <c r="P61" s="19"/>
@@ -13167,10 +13399,10 @@
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
-      <c r="N63" s="19">
+      <c r="N63" s="18">
         <v>730</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="15">
         <v>5.8E-4</v>
       </c>
       <c r="P63" s="19"/>
